--- a/朝阳/惠新里/新建 Microsoft Office Excel 工作表.xlsx
+++ b/朝阳/惠新里/新建 Microsoft Office Excel 工作表.xlsx
@@ -5500,24 +5500,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="109678592"/>
-        <c:axId val="109680128"/>
+        <c:axId val="70251264"/>
+        <c:axId val="70252800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109678592"/>
+        <c:axId val="70251264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109680128"/>
+        <c:crossAx val="70252800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109680128"/>
+        <c:axId val="70252800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5525,7 +5525,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109678592"/>
+        <c:crossAx val="70251264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5538,7 +5538,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8042,24 +8042,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="113880448"/>
-        <c:axId val="139072640"/>
+        <c:axId val="85084416"/>
+        <c:axId val="85114880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113880448"/>
+        <c:axId val="85084416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139072640"/>
+        <c:crossAx val="85114880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139072640"/>
+        <c:axId val="85114880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8067,7 +8067,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113880448"/>
+        <c:crossAx val="85084416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8080,7 +8080,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8438,11 +8438,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K410"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" activeCellId="1" sqref="A1:A1048576 J1:J1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
